--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>005794</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>银华心怡灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>38.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>003456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>信达澳银新目标灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>66.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003456</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银新目标灵活配置混合</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.25</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005794</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华心怡灵活配置混合</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.92</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.92</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,2414 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5704</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7837</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>690006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>690206</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3403,4 +3404,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3412,7 +3413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,17 +3424,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3443,14 +3464,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.38</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9812</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3459,14 +3502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6893</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3475,14 +3540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3491,13 +3578,1099 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1613</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1577</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5969</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4297</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>66.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4569,7 +4570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4580,17 +4581,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4600,14 +4621,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.09</v>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4616,14 +4659,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.38</v>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4632,14 +4697,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4648,14 +4735,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4664,13 +4773,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5576,7 +5577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5587,17 +5588,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5607,14 +5628,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.89</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5623,14 +5666,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.09</v>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5639,14 +5704,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.38</v>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5655,14 +5742,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5671,14 +5780,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.12</v>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5687,13 +5818,753 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>5.48</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>2.89</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>13.09</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>12.38</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.41</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3287</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时数字经济18个月封闭混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2459,7 +2988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3615,7 +4144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6018,176 +6547,6 @@
       </c>
       <c r="H63" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城创业板综指增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6252,36 +6611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003456</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新目标灵活配置混合</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0941</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6290,36 +6649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>008072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>景顺长城创业板综指增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6338,26 +6697,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6366,6 +6725,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300772-运达股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4.01</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>5.48</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>2.89</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>13.09</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>12.38</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.41</v>
       </c>
     </row>
@@ -616,7 +633,499 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +1637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1982,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2988,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4144,7 +4653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6547,176 +7056,6 @@
       </c>
       <c r="H63" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城创业板综指增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6781,36 +7120,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003456</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新目标灵活配置混合</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.06</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0941</t>
+          <t>0.0192</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6819,36 +7158,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>008072</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>景顺长城创业板综指增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6867,26 +7206,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6900,204 +7239,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005794</t>
+          <t>003456</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华心怡灵活配置混合</t>
+          <t>信达澳银新目标灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>84.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2782</t>
+          <t>0.0941</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003456</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银新目标灵活配置混合</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.25</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1035</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>